--- a/biology/Médecine/Herman_Vandenberghe/Herman_Vandenberghe.xlsx
+++ b/biology/Médecine/Herman_Vandenberghe/Herman_Vandenberghe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herman, Benediktus, baron Vandenberghe (parfois Van Den Berghe), né le 12 juin 1933 à Overboelare et mort le 23 janvier 2017[1], est un professeur de génétique belge flamand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herman, Benediktus, baron Vandenberghe (parfois Van Den Berghe), né le 12 juin 1933 à Overboelare et mort le 23 janvier 2017, est un professeur de génétique belge flamand.
 Il était docteur en médecine, licencié en radiobiologie, en sciences médicales, agrégé de l'enseignement supérieur, médecin spécialiste en oncologie et biologie clinique.
-Il a été l'un des très grands cytogénéticiens hématologiques (étude des anomalies chromosomiques, éléments majeurs du pronostic, dans les leucémies). Il a, entre autres, décrit la délétion 5q dans les myélodyplasies[2],[3].
+Il a été l'un des très grands cytogénéticiens hématologiques (étude des anomalies chromosomiques, éléments majeurs du pronostic, dans les leucémies). Il a, entre autres, décrit la délétion 5q dans les myélodyplasies,.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Directeur du centre de génétique humaine de Louvain[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Directeur du centre de génétique humaine de Louvain.
 Coordinateur de la recherche et vice-recteur de la KUL.
 Président de Genetica Belgica.
 Président honoraire de la Société belge de biologie cellulaire.
@@ -551,12 +565,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lauréat du Prix Quinquennal du Nationaal Fonds voor Wetenschappelijk Onderzoek
 Lauréat du Prix de la Communauté flamande
 Officier de l'ordre de Léopold.
-Élevé au rang de baron en 1992[5].</t>
+Élevé au rang de baron en 1992.</t>
         </is>
       </c>
     </row>
